--- a/Divers/Backlog.xlsx
+++ b/Divers/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GODOT\SopraGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\SopraGame\Divers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Tache</t>
   </si>
@@ -36,23 +36,38 @@
     <t>Barre de vie : style mortal kombat X. fixe sur l'écran en haut (gauche P1, droite P2)</t>
   </si>
   <si>
-    <t>Relance de la partie : Affichage de la victoire du player. En attente de l'appuie sur la touche Entrée pour relancer
+    <t>Réorganiser l'architecture des dossiers</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Relance de la partie avec la touche Entree</t>
+  </si>
+  <si>
+    <t>Affichage de la victoire du player
 Le player qui a gagné peut continuer à s'amuser tant que la touche Entrée n'est pas saisie</t>
   </si>
   <si>
-    <t>Réorganiser l'architecture des dossiers</t>
-  </si>
-  <si>
-    <t>Qui</t>
-  </si>
-  <si>
-    <t>Fait</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>En cours</t>
+    <t>Ajouter des coups spéciaux</t>
+  </si>
+  <si>
+    <t>Ajouter un menu avant de jouer</t>
+  </si>
+  <si>
+    <t>Ajouter les munitions</t>
+  </si>
+  <si>
+    <t>Ajouter les fatality</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,10 +428,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -433,46 +448,60 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>

--- a/Divers/Backlog.xlsx
+++ b/Divers/Backlog.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\SopraGame\Divers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Tache</t>
   </si>
@@ -68,6 +63,15 @@
   </si>
   <si>
     <t>Ajouter les fatality</t>
+  </si>
+  <si>
+    <t>JBR</t>
+  </si>
+  <si>
+    <t>OK/KO : petit bug a corriger</t>
+  </si>
+  <si>
+    <t>OK pour le composant manque le design</t>
   </si>
 </sst>
 </file>
@@ -403,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,16 +415,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,29 +443,39 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -468,7 +483,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -479,34 +494,40 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -595,6 +616,11 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Divers/Backlog.xlsx
+++ b/Divers/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7830"/>
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Tache</t>
   </si>
@@ -49,13 +52,6 @@
     <t>Relance de la partie avec la touche Entree</t>
   </si>
   <si>
-    <t>Affichage de la victoire du player
-Le player qui a gagné peut continuer à s'amuser tant que la touche Entrée n'est pas saisie</t>
-  </si>
-  <si>
-    <t>Ajouter des coups spéciaux</t>
-  </si>
-  <si>
     <t>Ajouter un menu avant de jouer</t>
   </si>
   <si>
@@ -68,17 +64,68 @@
     <t>JBR</t>
   </si>
   <si>
-    <t>OK/KO : petit bug a corriger</t>
-  </si>
-  <si>
-    <t>OK pour le composant manque le design</t>
+    <t>Réaliser animation player 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter des éléments de décor </t>
+  </si>
+  <si>
+    <t>Designe Barre de vie : style mortal kombat X</t>
+  </si>
+  <si>
+    <t>Affichage victoire joueur</t>
+  </si>
+  <si>
+    <t>Zoom progressif sur joueur gagnant</t>
+  </si>
+  <si>
+    <t>Le player qui a gagné peut continuer à s'amuser tant que la touche Entrée n'est pas saisie</t>
+  </si>
+  <si>
+    <t>Ajouter des éléments de décor interactifs (ballon)</t>
+  </si>
+  <si>
+    <t>Ajouter un bot</t>
+  </si>
+  <si>
+    <t>Ajouter des niveaux de difficulté</t>
+  </si>
+  <si>
+    <t>Exporter sous Android</t>
+  </si>
+  <si>
+    <t>Exporter au format exe Windows</t>
+  </si>
+  <si>
+    <t>Ajouter multijoueur en réseau</t>
+  </si>
+  <si>
+    <t>Refaire les animations de saut, d'atterissage et idle</t>
+  </si>
+  <si>
+    <t>Ajouter customisation avatar (chapeau)</t>
+  </si>
+  <si>
+    <t>Ajouter element de décor qui peut blaisser le joueur</t>
+  </si>
+  <si>
+    <t>Coder element de décor qui peut faire glisser le joueur</t>
+  </si>
+  <si>
+    <t>Ajouter Intro animée</t>
+  </si>
+  <si>
+    <t>Ajouter des ultimes (déclenchement avec la touche de tir)</t>
+  </si>
+  <si>
+    <t>Ajouter menu paramètre (vie, graphismes, munitions)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,28 +454,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -439,49 +486,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -492,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -503,125 +548,158 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divers/Backlog.xlsx
+++ b/Divers/Backlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Tache</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Ajouter menu paramètre (vie, graphismes, munitions)</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,20 +465,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,8 +489,11 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -496,8 +503,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,15 +515,17 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -525,8 +535,9 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,8 +547,9 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,156 +559,187 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>

--- a/Divers/Backlog.xlsx
+++ b/Divers/Backlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Tache</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Le player qui a gagné peut continuer à s'amuser tant que la touche Entrée n'est pas saisie</t>
   </si>
   <si>
-    <t>Ajouter des éléments de décor interactifs (ballon)</t>
-  </si>
-  <si>
     <t>Ajouter un bot</t>
   </si>
   <si>
@@ -122,6 +119,21 @@
   </si>
   <si>
     <t>Commentaire</t>
+  </si>
+  <si>
+    <t>A ameliorer</t>
+  </si>
+  <si>
+    <t>A gerer sous forme de fonction/ Ajouter de nouvelles fatality</t>
+  </si>
+  <si>
+    <t>Ajouter des éléments de décor interactifs</t>
+  </si>
+  <si>
+    <t>Healthpack, GatlingGun</t>
+  </si>
+  <si>
+    <t>A voir pour gérer avec set_script</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,7 +480,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -476,7 +488,7 @@
     <col min="1" max="1" width="79.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -490,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
@@ -563,19 +575,29 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
@@ -589,9 +611,15 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
@@ -635,23 +663,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -659,7 +699,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -667,7 +707,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -675,7 +715,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -683,7 +723,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -691,7 +731,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -699,7 +739,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -707,7 +747,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -721,7 +761,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -729,7 +769,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
